--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,150 +40,180 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
+    <t>air</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>instructions</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>doll</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
@@ -193,85 +223,109 @@
     <t>challenge</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>helicopter</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>blast</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>story</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>strategy</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>lego</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>ages</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>wait</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>challenging</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>lots</t>
-  </si>
-  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -632,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.921875</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9757281553398058</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.8679245283018868</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.967741935483871</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.859375</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -951,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.967741935483871</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8195020746887967</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9565217391304348</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,16 +1076,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9444444444444444</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9272727272727272</v>
+        <v>0.9660194174757282</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9206349206349206</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.7819225251076041</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9090909090909091</v>
+        <v>0.90625</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.8070539419087137</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>389</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>389</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8984375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.8064516129032258</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.875</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,31 +1373,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L15">
-        <v>544</v>
-      </c>
-      <c r="M15">
-        <v>544</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8688524590163934</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K16">
         <v>0.7096774193548387</v>
@@ -1401,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8214285714285714</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.6829268292682927</v>
+        <v>0.7003058103975535</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.6811594202898551</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8157894736842105</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.6785714285714286</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8151658767772512</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.6727272727272727</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7777777777777778</v>
+        <v>0.7914691943127962</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.6483180428134556</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="L21">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7702702702702703</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.5873666940114848</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L22">
-        <v>716</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>717</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>503</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7681159420289855</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.5128205128205128</v>
+        <v>0.5545529122231337</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>676</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>677</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7590361445783133</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7301587301587301</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.4512534818941504</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L25">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>197</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7142857142857143</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.3493975903614458</v>
+        <v>0.4930362116991643</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6907216494845361</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.2751322751322751</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +2005,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6829268292682927</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.2582738481505516</v>
+        <v>0.44</v>
       </c>
       <c r="L28">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C29">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.1967213114754098</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6578947368421053</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,31 +2123,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30">
+        <v>0.3032786885245902</v>
+      </c>
+      <c r="L30">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>37</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>85</v>
-      </c>
-      <c r="K30">
-        <v>0.1770376862401402</v>
-      </c>
-      <c r="L30">
-        <v>202</v>
-      </c>
-      <c r="M30">
-        <v>202</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>939</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6571428571428571</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,7 +2173,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31">
+        <v>0.3</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2127,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6302521008403361</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2145,21 +2223,45 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32">
+        <v>0.2933160285528877</v>
+      </c>
+      <c r="L32">
+        <v>452</v>
+      </c>
+      <c r="M32">
+        <v>452</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.625</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2171,21 +2273,45 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33">
+        <v>0.2304995617879053</v>
+      </c>
+      <c r="L33">
+        <v>263</v>
+      </c>
+      <c r="M33">
+        <v>263</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6206896551724138</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2197,21 +2323,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34">
+        <v>0.224</v>
+      </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6111111111111112</v>
+        <v>0.65</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2223,21 +2373,45 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6111111111111112</v>
+        <v>0.6405797101449275</v>
       </c>
       <c r="C36">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2249,21 +2423,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6</v>
+        <v>0.6089108910891089</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2275,21 +2473,45 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.599009900990099</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C38">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2301,21 +2523,45 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38">
+        <v>0.06648936170212766</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5714285714285714</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2327,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5416666666666666</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2353,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5379746835443038</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C41">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2379,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5238095238095238</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2405,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4693877551020408</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2431,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4065934065934066</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2457,21 +2703,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.32</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2483,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3023255813953488</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2509,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2536231884057971</v>
+        <v>0.322463768115942</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2535,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2436708860759494</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C48">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2561,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>239</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2569,13 +2815,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1420765027322404</v>
+        <v>0.3</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2587,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2595,25 +2841,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.112927191679049</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C50">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>597</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2621,13 +2867,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03511450381679389</v>
+        <v>0.2578125</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2639,7 +2885,267 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>632</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.2563291139240506</v>
+      </c>
+      <c r="C52">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>81</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1436781609195402</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.1424050632911392</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>46</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56">
+        <v>0.98</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1387665198237885</v>
+      </c>
+      <c r="C57">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.1311475409836066</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.1292719167904904</v>
+      </c>
+      <c r="C59">
+        <v>87</v>
+      </c>
+      <c r="D59">
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <v>0.01</v>
+      </c>
+      <c r="F59">
+        <v>0.99</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.1275510204081633</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.09923664122137404</v>
+      </c>
+      <c r="C61">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>65</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
